--- a/data/2016-2021_waters.xlsx
+++ b/data/2016-2021_waters.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emojifilesystem/RND/Turkana-waters/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{6B3699E3-EE8C-D34A-A41C-AC144EA075CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{29A45447-0ECD-EB41-A76C-37A2D7BCDF77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040"/>
+    <workbookView xWindow="3280" yWindow="1400" windowWidth="28040" windowHeight="17040"/>
   </bookViews>
   <sheets>
-    <sheet name="2016-2020_waters" sheetId="1" r:id="rId1"/>
+    <sheet name="Saslaw_et_al_2022_raw_data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -590,10 +590,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="165" formatCode="#0.00"/>
     <numFmt numFmtId="166" formatCode="#0.0"/>
     <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="173" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -1090,7 +1091,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1125,12 +1126,13 @@
     <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="21" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="20" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1489,12 +1491,13 @@
   <dimension ref="A1:N134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.1640625" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.5" customWidth="1"/>
     <col min="5" max="5" width="26.5" customWidth="1"/>
     <col min="8" max="8" width="13.5" customWidth="1"/>
@@ -1507,7 +1510,7 @@
       <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="9" t="s">
@@ -1551,7 +1554,7 @@
       <c r="B2" s="11">
         <v>42764</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="13">
         <v>0.72916666666666663</v>
       </c>
       <c r="D2" s="8" t="s">
@@ -1595,7 +1598,7 @@
       <c r="B3" s="11">
         <v>42765</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="13">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="D3" s="8" t="s">
@@ -1639,7 +1642,7 @@
       <c r="B4" s="11">
         <v>42767</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="13">
         <v>0.14583333333333334</v>
       </c>
       <c r="D4" s="8" t="s">
@@ -1683,7 +1686,7 @@
       <c r="B5" s="11">
         <v>42770</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="13">
         <v>0.58333333333333337</v>
       </c>
       <c r="D5" s="8" t="s">
@@ -1727,7 +1730,7 @@
       <c r="B6" s="11">
         <v>42784</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="13">
         <v>0.45833333333333331</v>
       </c>
       <c r="D6" s="8" t="s">
@@ -1771,7 +1774,7 @@
       <c r="B7" s="11">
         <v>42794</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="13">
         <v>0.70833333333333337</v>
       </c>
       <c r="D7" s="8" t="s">
@@ -1815,7 +1818,7 @@
       <c r="B8" s="11">
         <v>42883</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="13">
         <v>0</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -1859,7 +1862,7 @@
       <c r="B9" s="11">
         <v>42885</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="13">
         <v>0.10416666666666667</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -1903,7 +1906,7 @@
       <c r="B10" s="11">
         <v>42920</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="13">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D10" s="8" t="s">
@@ -1947,7 +1950,7 @@
       <c r="B11" s="11">
         <v>43149</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="13">
         <v>0.6875</v>
       </c>
       <c r="D11" s="8" t="s">
@@ -1991,7 +1994,7 @@
       <c r="B12" s="11">
         <v>43158</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="13">
         <v>0.95833333333333337</v>
       </c>
       <c r="D12" s="8" t="s">
@@ -2035,7 +2038,7 @@
       <c r="B13" s="11">
         <v>43165</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="13">
         <v>0.625</v>
       </c>
       <c r="D13" s="8" t="s">
@@ -2079,7 +2082,7 @@
       <c r="B14" s="11">
         <v>43166</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="13">
         <v>0.29166666666666669</v>
       </c>
       <c r="D14" s="8" t="s">
@@ -2123,7 +2126,7 @@
       <c r="B15" s="11">
         <v>43172</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="13">
         <v>0.54166666666666663</v>
       </c>
       <c r="D15" s="8" t="s">
@@ -2167,7 +2170,7 @@
       <c r="B16" s="11">
         <v>43175</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="13">
         <v>0.27083333333333331</v>
       </c>
       <c r="D16" s="8" t="s">
@@ -2211,7 +2214,7 @@
       <c r="B17" s="11">
         <v>43512</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="8" t="s">
@@ -2255,7 +2258,7 @@
       <c r="B18" s="11">
         <v>43545</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="8" t="s">
@@ -2299,7 +2302,7 @@
       <c r="B19" s="11">
         <v>43578</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D19" s="8" t="s">
@@ -2343,7 +2346,7 @@
       <c r="B20" s="11">
         <v>43580</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="8" t="s">
@@ -2387,7 +2390,7 @@
       <c r="B21" s="11">
         <v>43582</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="8" t="s">
@@ -2431,7 +2434,7 @@
       <c r="B22" s="11">
         <v>43611</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="8" t="s">
@@ -2475,7 +2478,7 @@
       <c r="B23" s="11">
         <v>43628</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D23" s="8" t="s">
@@ -2519,7 +2522,7 @@
       <c r="B24" s="11">
         <v>43662</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D24" s="8" t="s">
@@ -2563,7 +2566,7 @@
       <c r="B25" s="11">
         <v>43690</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D25" s="8" t="s">
@@ -2607,7 +2610,7 @@
       <c r="B26" s="11">
         <v>43740</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D26" s="8" t="s">
@@ -2651,7 +2654,7 @@
       <c r="B27" s="11">
         <v>43740</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D27" s="8" t="s">
@@ -2695,7 +2698,7 @@
       <c r="B28" s="11">
         <v>43178</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="13">
         <v>0.45833333333333331</v>
       </c>
       <c r="D28" s="8" t="s">
@@ -2739,7 +2742,7 @@
       <c r="B29" s="11">
         <v>43274</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D29" s="8" t="s">
@@ -2783,7 +2786,7 @@
       <c r="B30" s="11">
         <v>42823</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="13">
         <v>0.33333333333333331</v>
       </c>
       <c r="D30" s="8" t="s">
@@ -2827,7 +2830,7 @@
       <c r="B31" s="11">
         <v>43178</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="13">
         <v>0.77083333333333337</v>
       </c>
       <c r="D31" s="8" t="s">
@@ -2871,7 +2874,7 @@
       <c r="B32" s="11">
         <v>43190</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="13">
         <v>0.41666666666666669</v>
       </c>
       <c r="D32" s="8" t="s">
@@ -2915,7 +2918,7 @@
       <c r="B33" s="11">
         <v>43844</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D33" s="8" t="s">
@@ -2959,7 +2962,7 @@
       <c r="B34" s="11">
         <v>43852</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D34" s="8" t="s">
@@ -3003,7 +3006,7 @@
       <c r="B35" s="11">
         <v>42912</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="13">
         <v>0.35416666666666669</v>
       </c>
       <c r="D35" s="8" t="s">
@@ -3047,7 +3050,7 @@
       <c r="B36" s="11">
         <v>43848</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D36" s="8" t="s">
@@ -3091,7 +3094,7 @@
       <c r="B37" s="11">
         <v>42906</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C37" s="13">
         <v>0.47916666666666669</v>
       </c>
       <c r="D37" s="8" t="s">
@@ -3135,7 +3138,7 @@
       <c r="B38" s="11">
         <v>42906</v>
       </c>
-      <c r="C38" s="12">
+      <c r="C38" s="13">
         <v>0.41666666666666669</v>
       </c>
       <c r="D38" s="8" t="s">
@@ -3179,7 +3182,7 @@
       <c r="B39" s="11">
         <v>42643</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D39" s="8" t="s">
@@ -3223,7 +3226,7 @@
       <c r="B40" s="11">
         <v>42642</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D40" s="8" t="s">
@@ -3267,7 +3270,7 @@
       <c r="B41" s="11">
         <v>42651</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D41" s="8" t="s">
@@ -3311,7 +3314,7 @@
       <c r="B42" s="11">
         <v>42767</v>
       </c>
-      <c r="C42" s="12">
+      <c r="C42" s="13">
         <v>0.79166666666666663</v>
       </c>
       <c r="D42" s="8" t="s">
@@ -3355,7 +3358,7 @@
       <c r="B43" s="11">
         <v>42771</v>
       </c>
-      <c r="C43" s="12">
+      <c r="C43" s="13">
         <v>0.77083333333333337</v>
       </c>
       <c r="D43" s="8" t="s">
@@ -3399,7 +3402,7 @@
       <c r="B44" s="11">
         <v>42799</v>
       </c>
-      <c r="C44" s="12">
+      <c r="C44" s="13">
         <v>0.47916666666666669</v>
       </c>
       <c r="D44" s="8" t="s">
@@ -3443,7 +3446,7 @@
       <c r="B45" s="11">
         <v>42890</v>
       </c>
-      <c r="C45" s="12">
+      <c r="C45" s="13">
         <v>0.5</v>
       </c>
       <c r="D45" s="8" t="s">
@@ -3487,7 +3490,7 @@
       <c r="B46" s="11">
         <v>42904</v>
       </c>
-      <c r="C46" s="12">
+      <c r="C46" s="13">
         <v>0.97916666666666663</v>
       </c>
       <c r="D46" s="8" t="s">
@@ -3531,7 +3534,7 @@
       <c r="B47" s="11">
         <v>42920</v>
       </c>
-      <c r="C47" s="12">
+      <c r="C47" s="13">
         <v>0.6875</v>
       </c>
       <c r="D47" s="8" t="s">
@@ -3575,7 +3578,7 @@
       <c r="B48" s="11">
         <v>43131</v>
       </c>
-      <c r="C48" s="12">
+      <c r="C48" s="13">
         <v>0.72916666666666663</v>
       </c>
       <c r="D48" s="8" t="s">
@@ -3619,7 +3622,7 @@
       <c r="B49" s="11">
         <v>43135</v>
       </c>
-      <c r="C49" s="12">
+      <c r="C49" s="13">
         <v>0.45833333333333331</v>
       </c>
       <c r="D49" s="8" t="s">
@@ -3663,7 +3666,7 @@
       <c r="B50" s="11">
         <v>43142</v>
       </c>
-      <c r="C50" s="12">
+      <c r="C50" s="13">
         <v>0.41666666666666669</v>
       </c>
       <c r="D50" s="8" t="s">
@@ -3707,7 +3710,7 @@
       <c r="B51" s="11">
         <v>43156</v>
       </c>
-      <c r="C51" s="12">
+      <c r="C51" s="13">
         <v>0.41666666666666669</v>
       </c>
       <c r="D51" s="8" t="s">
@@ -3751,7 +3754,7 @@
       <c r="B52" s="11">
         <v>43282</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D52" s="8" t="s">
@@ -3795,7 +3798,7 @@
       <c r="B53" s="11">
         <v>43296</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D53" s="8" t="s">
@@ -3839,7 +3842,7 @@
       <c r="B54" s="11">
         <v>43303</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D54" s="8" t="s">
@@ -3883,7 +3886,7 @@
       <c r="B55" s="11">
         <v>43312</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D55" s="8" t="s">
@@ -3927,7 +3930,7 @@
       <c r="B56" s="11">
         <v>43327</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D56" s="8" t="s">
@@ -3971,7 +3974,7 @@
       <c r="B57" s="11">
         <v>43342</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D57" s="8" t="s">
@@ -4015,7 +4018,7 @@
       <c r="B58" s="11">
         <v>43358</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C58" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D58" s="8" t="s">
@@ -4059,7 +4062,7 @@
       <c r="B59" s="11">
         <v>43373</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D59" s="8" t="s">
@@ -4103,7 +4106,7 @@
       <c r="B60" s="11">
         <v>43388</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C60" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D60" s="8" t="s">
@@ -4147,7 +4150,7 @@
       <c r="B61" s="11">
         <v>43405</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D61" s="8" t="s">
@@ -4191,7 +4194,7 @@
       <c r="B62" s="11">
         <v>43419</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C62" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D62" s="8" t="s">
@@ -4235,7 +4238,7 @@
       <c r="B63" s="11">
         <v>43438</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D63" s="8" t="s">
@@ -4279,7 +4282,7 @@
       <c r="B64" s="11">
         <v>43449</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C64" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D64" s="8" t="s">
@@ -4323,7 +4326,7 @@
       <c r="B65" s="11">
         <v>43498</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C65" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D65" s="8" t="s">
@@ -4367,7 +4370,7 @@
       <c r="B66" s="11">
         <v>43556</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C66" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D66" s="8" t="s">
@@ -4411,7 +4414,7 @@
       <c r="B67" s="11">
         <v>43570</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C67" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D67" s="8" t="s">
@@ -4455,7 +4458,7 @@
       <c r="B68" s="11">
         <v>43587</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C68" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D68" s="8" t="s">
@@ -4499,7 +4502,7 @@
       <c r="B69" s="11">
         <v>43616</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C69" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D69" s="8" t="s">
@@ -4543,7 +4546,7 @@
       <c r="B70" s="11">
         <v>43619</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C70" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D70" s="8" t="s">
@@ -4587,7 +4590,7 @@
       <c r="B71" s="11">
         <v>43730</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C71" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D71" s="8" t="s">
@@ -4631,7 +4634,7 @@
       <c r="B72" s="11">
         <v>43734</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C72" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D72" s="8" t="s">
@@ -4675,7 +4678,7 @@
       <c r="B73" s="11">
         <v>42776</v>
       </c>
-      <c r="C73" s="12">
+      <c r="C73" s="13">
         <v>0.77083333333333337</v>
       </c>
       <c r="D73" s="8" t="s">
@@ -4719,7 +4722,7 @@
       <c r="B74" s="11">
         <v>43735</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C74" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D74" s="8" t="s">
@@ -4763,7 +4766,7 @@
       <c r="B75" s="11">
         <v>42647</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C75" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D75" s="8" t="s">
@@ -4807,7 +4810,7 @@
       <c r="B76" s="11">
         <v>42781</v>
       </c>
-      <c r="C76" s="12">
+      <c r="C76" s="13">
         <v>0.70833333333333337</v>
       </c>
       <c r="D76" s="8" t="s">
@@ -4851,7 +4854,7 @@
       <c r="B77" s="11">
         <v>43145</v>
       </c>
-      <c r="C77" s="12">
+      <c r="C77" s="13">
         <v>0.70833333333333337</v>
       </c>
       <c r="D77" s="8" t="s">
@@ -4895,7 +4898,7 @@
       <c r="B78" s="11">
         <v>43287</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="C78" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D78" s="8" t="s">
@@ -4939,7 +4942,7 @@
       <c r="B79" s="11">
         <v>43740</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="C79" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D79" s="8" t="s">
@@ -4983,7 +4986,7 @@
       <c r="B80" s="11">
         <v>42820</v>
       </c>
-      <c r="C80" s="12">
+      <c r="C80" s="13">
         <v>0.70833333333333337</v>
       </c>
       <c r="D80" s="8" t="s">
@@ -5027,7 +5030,7 @@
       <c r="B81" s="11">
         <v>43181</v>
       </c>
-      <c r="C81" s="12">
+      <c r="C81" s="13">
         <v>0.66666666666666663</v>
       </c>
       <c r="D81" s="8" t="s">
@@ -5071,7 +5074,7 @@
       <c r="B82" s="11">
         <v>43848</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="C82" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D82" s="8" t="s">
@@ -5115,7 +5118,7 @@
       <c r="B83" s="11">
         <v>42819</v>
       </c>
-      <c r="C83" s="12">
+      <c r="C83" s="13">
         <v>0.625</v>
       </c>
       <c r="D83" s="8" t="s">
@@ -5159,7 +5162,7 @@
       <c r="B84" s="11">
         <v>43182</v>
       </c>
-      <c r="C84" s="12">
+      <c r="C84" s="13">
         <v>0.58333333333333337</v>
       </c>
       <c r="D84" s="8" t="s">
@@ -5203,7 +5206,7 @@
       <c r="B85" s="11">
         <v>43852</v>
       </c>
-      <c r="C85" s="8" t="s">
+      <c r="C85" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D85" s="8" t="s">
@@ -5247,7 +5250,7 @@
       <c r="B86" s="11">
         <v>42910</v>
       </c>
-      <c r="C86" s="12">
+      <c r="C86" s="13">
         <v>0.75</v>
       </c>
       <c r="D86" s="8" t="s">
@@ -5291,7 +5294,7 @@
       <c r="B87" s="11">
         <v>42643</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="C87" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D87" s="8" t="s">
@@ -5335,7 +5338,7 @@
       <c r="B88" s="11">
         <v>43140</v>
       </c>
-      <c r="C88" s="12">
+      <c r="C88" s="13">
         <v>0.45833333333333331</v>
       </c>
       <c r="D88" s="8" t="s">
@@ -5379,7 +5382,7 @@
       <c r="B89" s="11">
         <v>43730</v>
       </c>
-      <c r="C89" s="8" t="s">
+      <c r="C89" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D89" s="8" t="s">
@@ -5423,7 +5426,7 @@
       <c r="B90" s="11">
         <v>43735</v>
       </c>
-      <c r="C90" s="8" t="s">
+      <c r="C90" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D90" s="8" t="s">
@@ -5467,7 +5470,7 @@
       <c r="B91" s="11">
         <v>42919</v>
       </c>
-      <c r="C91" s="12">
+      <c r="C91" s="13">
         <v>0.9375</v>
       </c>
       <c r="D91" s="8" t="s">
@@ -5511,7 +5514,7 @@
       <c r="B92" s="11">
         <v>43285</v>
       </c>
-      <c r="C92" s="12">
+      <c r="C92" s="13">
         <v>0.375</v>
       </c>
       <c r="D92" s="8" t="s">
@@ -5555,7 +5558,7 @@
       <c r="B93" s="11">
         <v>43300</v>
       </c>
-      <c r="C93" s="12">
+      <c r="C93" s="13">
         <v>0.625</v>
       </c>
       <c r="D93" s="8" t="s">
@@ -5599,7 +5602,7 @@
       <c r="B94" s="11">
         <v>43318</v>
       </c>
-      <c r="C94" s="8" t="s">
+      <c r="C94" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D94" s="8" t="s">
@@ -5643,7 +5646,7 @@
       <c r="B95" s="11">
         <v>43377</v>
       </c>
-      <c r="C95" s="8" t="s">
+      <c r="C95" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D95" s="8" t="s">
@@ -5687,7 +5690,7 @@
       <c r="B96" s="11">
         <v>43408</v>
       </c>
-      <c r="C96" s="8" t="s">
+      <c r="C96" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D96" s="8" t="s">
@@ -5731,7 +5734,7 @@
       <c r="B97" s="11">
         <v>43438</v>
       </c>
-      <c r="C97" s="8" t="s">
+      <c r="C97" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D97" s="8" t="s">
@@ -5775,7 +5778,7 @@
       <c r="B98" s="11">
         <v>43469</v>
       </c>
-      <c r="C98" s="8" t="s">
+      <c r="C98" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D98" s="8" t="s">
@@ -5819,7 +5822,7 @@
       <c r="B99" s="11">
         <v>43556</v>
       </c>
-      <c r="C99" s="8" t="s">
+      <c r="C99" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D99" s="8" t="s">
@@ -5863,7 +5866,7 @@
       <c r="B100" s="11">
         <v>43559</v>
       </c>
-      <c r="C100" s="8" t="s">
+      <c r="C100" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D100" s="8" t="s">
@@ -5907,7 +5910,7 @@
       <c r="B101" s="11">
         <v>43712</v>
       </c>
-      <c r="C101" s="8" t="s">
+      <c r="C101" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D101" s="8" t="s">
@@ -5951,7 +5954,7 @@
       <c r="B102" s="11">
         <v>43846</v>
       </c>
-      <c r="C102" s="8" t="s">
+      <c r="C102" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D102" s="8" t="s">
@@ -5995,7 +5998,7 @@
       <c r="B103" s="11">
         <v>42883</v>
       </c>
-      <c r="C103" s="12">
+      <c r="C103" s="13">
         <v>0.375</v>
       </c>
       <c r="D103" s="8" t="s">
@@ -6039,7 +6042,7 @@
       <c r="B104" s="11">
         <v>42883</v>
       </c>
-      <c r="C104" s="12">
+      <c r="C104" s="13">
         <v>0.35416666666666669</v>
       </c>
       <c r="D104" s="8" t="s">
@@ -6083,7 +6086,7 @@
       <c r="B105" s="11">
         <v>42907</v>
       </c>
-      <c r="C105" s="12">
+      <c r="C105" s="13">
         <v>0.4375</v>
       </c>
       <c r="D105" s="8" t="s">
@@ -6127,7 +6130,7 @@
       <c r="B106" s="11">
         <v>42649</v>
       </c>
-      <c r="C106" s="8" t="s">
+      <c r="C106" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D106" s="8" t="s">
@@ -6171,7 +6174,7 @@
       <c r="B107" s="11">
         <v>42802</v>
       </c>
-      <c r="C107" s="12">
+      <c r="C107" s="13">
         <v>0.91666666666666663</v>
       </c>
       <c r="D107" s="8" t="s">
@@ -6215,7 +6218,7 @@
       <c r="B108" s="11">
         <v>42881</v>
       </c>
-      <c r="C108" s="12">
+      <c r="C108" s="13">
         <v>0.91666666666666663</v>
       </c>
       <c r="D108" s="8" t="s">
@@ -6259,7 +6262,7 @@
       <c r="B109" s="11">
         <v>42823</v>
       </c>
-      <c r="C109" s="12">
+      <c r="C109" s="13">
         <v>0.95833333333333337</v>
       </c>
       <c r="D109" s="8" t="s">
@@ -6303,7 +6306,7 @@
       <c r="B110" s="11">
         <v>43852</v>
       </c>
-      <c r="C110" s="8" t="s">
+      <c r="C110" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D110" s="8" t="s">
@@ -6347,7 +6350,7 @@
       <c r="B111" s="11">
         <v>43852</v>
       </c>
-      <c r="C111" s="8" t="s">
+      <c r="C111" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D111" s="8" t="s">
@@ -6391,7 +6394,7 @@
       <c r="B112" s="11">
         <v>42883</v>
       </c>
-      <c r="C112" s="12">
+      <c r="C112" s="13">
         <v>0.4375</v>
       </c>
       <c r="D112" s="8" t="s">
@@ -6435,7 +6438,7 @@
       <c r="B113" s="11">
         <v>42766</v>
       </c>
-      <c r="C113" s="12">
+      <c r="C113" s="13">
         <v>0.41666666666666669</v>
       </c>
       <c r="D113" s="8" t="s">
@@ -6479,7 +6482,7 @@
       <c r="B114" s="11">
         <v>42776</v>
       </c>
-      <c r="C114" s="12">
+      <c r="C114" s="13">
         <v>0.4375</v>
       </c>
       <c r="D114" s="8" t="s">
@@ -6523,7 +6526,7 @@
       <c r="B115" s="11">
         <v>42812</v>
       </c>
-      <c r="C115" s="12">
+      <c r="C115" s="13">
         <v>0.77083333333333337</v>
       </c>
       <c r="D115" s="8" t="s">
@@ -6567,7 +6570,7 @@
       <c r="B116" s="11">
         <v>42921</v>
       </c>
-      <c r="C116" s="12">
+      <c r="C116" s="13">
         <v>0.72916666666666663</v>
       </c>
       <c r="D116" s="8" t="s">
